--- a/notebooks/final_spreadsheet.xlsx
+++ b/notebooks/final_spreadsheet.xlsx
@@ -704,25 +704,15 @@
           <t>A. Z. Kelley Elementary</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>42.3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -870,25 +860,17 @@
           <t>Alex Green Elementary</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>42.6</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
+      <c r="C3" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.9</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
@@ -1038,25 +1020,17 @@
           <t>Amqui Elementary</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.8</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -1208,25 +1182,15 @@
           <t>Andrew Jackson Elementary</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.1</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -1376,25 +1340,15 @@
           <t>Bellshire Elementary</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.6</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -1544,25 +1498,17 @@
           <t>Ida B. Wells Elementary</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>90</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.8</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -1712,25 +1658,17 @@
           <t>Cane Ridge Elementary</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>43.2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
@@ -1880,25 +1818,15 @@
           <t>Chadwell Elementary</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>38.8</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -2048,25 +1976,17 @@
           <t>Charlotte Park Elementary</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>54.1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -2216,25 +2136,17 @@
           <t>Eagle View Elementary School</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>53.1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.8</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
@@ -2384,25 +2296,15 @@
           <t>Cockrill Elementary</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>38.5</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.5</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -2552,25 +2454,17 @@
           <t>Cole Elementary</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.8</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -2720,25 +2614,15 @@
           <t>Hattie Cotton Elementary</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>28.1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
@@ -2888,25 +2772,15 @@
           <t>Crieve Hall Elementary</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>48.7</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -3056,25 +2930,17 @@
           <t>Cumberland Elementary</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>38.2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
+      <c r="C16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.6</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -3224,25 +3090,17 @@
           <t>Dan Mills Elementary</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>58.6</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>4</v>
@@ -3392,25 +3250,17 @@
           <t>Dodson Elementary</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>63.3</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
+      <c r="C18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -3560,25 +3410,17 @@
           <t>DuPont Elementary</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>38.9</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.8</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -3728,25 +3570,17 @@
           <t>Eakin Elementary</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>44.4</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.7</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
@@ -3896,25 +3730,17 @@
           <t>Thomas A. Edison Elementary</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>59.7</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.9</v>
       </c>
       <c r="G21" t="n">
         <v>5</v>
@@ -4062,25 +3888,17 @@
           <t>Fall-Hamilton Elementary</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
+      <c r="C22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D22" t="n">
+        <v>64</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.2</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -4230,25 +4048,17 @@
           <t>Gateway Elementary</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.8</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -4398,25 +4208,15 @@
           <t>Glencliff Elementary</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.7</v>
       </c>
       <c r="G24" t="n">
         <v>5</v>
@@ -4564,26 +4364,10 @@
           <t>Glendale Elementary</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
         <v>1</v>
       </c>
@@ -4732,25 +4516,17 @@
           <t>Glengarry Elementary</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
+      <c r="C26" t="n">
+        <v>11</v>
+      </c>
+      <c r="D26" t="n">
+        <v>64</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.9</v>
       </c>
       <c r="G26" t="n">
         <v>5</v>
@@ -4898,25 +4674,17 @@
           <t>Glenview Elementary</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C27" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.7</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -5066,25 +4834,17 @@
           <t>Goodlettsville Elementary</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>35.7</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C28" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.7</v>
       </c>
       <c r="G28" t="n">
         <v>5</v>
@@ -5234,25 +4994,17 @@
           <t>Gower Elementary</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.7</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -5402,25 +5154,17 @@
           <t>Granbery Elementary</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>10.2</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C30" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>57</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>5</v>
@@ -5568,25 +5312,17 @@
           <t>Harpeth Valley Elementary</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>14.3</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>71.4</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
+      <c r="C31" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.4</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -5736,25 +5472,17 @@
           <t>Haywood Elementary</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>10.2</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>63.3</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
+      <c r="C32" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.9</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
@@ -5902,25 +5630,17 @@
           <t>Henry C. Maxwell Elementary</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C33" t="n">
+        <v>8</v>
+      </c>
+      <c r="D33" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.8</v>
       </c>
       <c r="G33" t="n">
         <v>5</v>
@@ -6068,25 +5788,17 @@
           <t>Hermitage Elementary</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>44.2</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
+      <c r="C34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.9</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -6236,25 +5948,17 @@
           <t>Hickman Elementary</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C35" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -6404,26 +6108,10 @@
           <t>Hull-Jackson Elementary</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
         <v>4</v>
       </c>
@@ -6572,25 +6260,13 @@
           <t>Inglewood Elementary</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.3</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -6740,25 +6416,17 @@
           <t>J. E. Moss Elementary</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>55.6</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.8</v>
       </c>
       <c r="G38" t="n">
         <v>5</v>
@@ -6906,25 +6574,17 @@
           <t>Joelton Elementary</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C39" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>32</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
       </c>
       <c r="G39" t="n">
         <v>5</v>
@@ -7074,25 +6734,15 @@
           <t>Jones Elementary</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
+      <c r="C40" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.3</v>
       </c>
       <c r="G40" t="n">
         <v>5</v>
@@ -7242,25 +6892,17 @@
           <t>John B. Whitsitt Elementary</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>63.7</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
+      <c r="C41" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.9</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -7410,26 +7052,10 @@
           <t>Julia Green Elementary</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
         <v>4</v>
       </c>
@@ -7578,25 +7204,15 @@
           <t>Lakeview Elementary</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.6</v>
       </c>
       <c r="G43" t="n">
         <v>5</v>
@@ -7744,26 +7360,10 @@
           <t>Lockeland Elementary</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
         <v>3</v>
       </c>
@@ -7912,25 +7512,17 @@
           <t>McGavock Elementary</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C45" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>56</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.8</v>
       </c>
       <c r="G45" t="n">
         <v>5</v>
@@ -8080,25 +7672,17 @@
           <t>Mt. View Elementary</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>53</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3</v>
       </c>
       <c r="G46" t="n">
         <v>5</v>
@@ -8246,26 +7830,10 @@
           <t>Napier Elementary</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
         <v>4</v>
       </c>
@@ -8414,25 +7982,17 @@
           <t>Neely's Bend Elementary</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>57.7</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
+      <c r="C48" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.9</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -8584,25 +8144,17 @@
           <t>Norman Binkley Elementary</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>59.7</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C49" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.8</v>
       </c>
       <c r="G49" t="n">
         <v>5</v>
@@ -8752,25 +8304,17 @@
           <t>Old Center Elementary</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>56.7</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C50" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D50" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -8920,25 +8464,17 @@
           <t>Paragon Mills Elementary</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C51" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D51" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.7</v>
       </c>
       <c r="G51" t="n">
         <v>4</v>
@@ -9086,25 +8622,15 @@
           <t>Park Avenue Elementary</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>38.5</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.5</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -9254,25 +8780,15 @@
           <t>Pennington Elementary</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>55.2</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.8</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -9422,25 +8938,15 @@
           <t>Percy Priest Elementary</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>23.1</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
+      <c r="C54" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.8</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -9590,25 +9096,15 @@
           <t>Rosebank Elementary</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>55.6</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
       </c>
       <c r="G55" t="n">
         <v>4</v>
@@ -9758,25 +9254,17 @@
           <t>Ruby Major Elementary</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>55.6</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
+      <c r="C56" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3.1</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -9926,25 +9414,17 @@
           <t>May Werthan Shayne Elementary School</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>40.8</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
+      <c r="C57" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D57" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.9</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -10092,25 +9572,15 @@
           <t>Shwab Elementary</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>64.1</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.9</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -10260,25 +9730,17 @@
           <t>Stanford Elementary</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>72.7</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
+      <c r="C59" t="n">
+        <v>20</v>
+      </c>
+      <c r="D59" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3.9</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -10428,25 +9890,17 @@
           <t>Robert Churchwell Elementary</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>10.7</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>43.8</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C60" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D60" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.8</v>
       </c>
       <c r="G60" t="n">
         <v>5</v>
@@ -10596,25 +10050,15 @@
           <t>Stratton Elementary</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>34.4</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.7</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -10764,26 +10208,10 @@
           <t>Sylvan Park Elementary</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
         <v>4</v>
       </c>
@@ -10932,25 +10360,15 @@
           <t>Tom Joy Elementary</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>41</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.6</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -11100,25 +10518,17 @@
           <t>Tulip Grove Elementary</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>57.4</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C64" t="n">
+        <v>9</v>
+      </c>
+      <c r="D64" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -11268,25 +10678,17 @@
           <t>Tusculum Elementary</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C65" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.8</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -11434,25 +10836,15 @@
           <t>Una Elementary</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.5</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -11602,25 +10994,17 @@
           <t>Carter-Lawrence Elementary</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>35.7</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>53.8</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
+      <c r="C67" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="D67" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3.7</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -11770,25 +11154,17 @@
           <t>Warner Elementary</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
+      <c r="C68" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>40</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3.4</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -11938,25 +11314,17 @@
           <t>Westmeade Elementary</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>62.9</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
+      <c r="C69" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3.1</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -12106,25 +11474,17 @@
           <t>Smith Springs Elementary School</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>49.1</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
+      <c r="C70" t="n">
+        <v>9</v>
+      </c>
+      <c r="D70" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.9</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -12272,25 +11632,15 @@
           <t>Waverly-Belmont Elementary School</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>13.3</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
+      <c r="C71" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3.4</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -12440,25 +11790,15 @@
           <t>Antioch Middle</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>11.5</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2.7</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -12610,25 +11950,15 @@
           <t>Apollo Middle</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>22.1</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.7</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -12780,26 +12110,10 @@
           <t>Moses McKissack Middle</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
         <v>4</v>
       </c>
@@ -12950,25 +12264,17 @@
           <t>Bellevue Middle</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>17.2</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
+      <c r="C75" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>50</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.5</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -13120,25 +12426,15 @@
           <t>Croft Middle</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>22.1</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.8</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -13290,25 +12586,15 @@
           <t>Donelson Middle</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>25.5</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.9</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -13460,25 +12746,17 @@
           <t>DuPont Tyler Middle</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>15.9</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C78" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D78" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -13630,25 +12908,15 @@
           <t>DuPont Hadley Middle</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>24</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.7</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -13800,25 +13068,15 @@
           <t>Goodlettsville Middle</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>20</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.9</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -13970,25 +13228,17 @@
           <t>H. G. Hill Middle</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>31.5</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C81" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
       </c>
       <c r="G81" t="n">
         <v>5</v>
@@ -14140,26 +13390,10 @@
           <t>East Nashville Middle</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
         <v>1</v>
       </c>
@@ -14310,25 +13544,17 @@
           <t>Haynes Middle</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C83" t="n">
+        <v>12</v>
+      </c>
+      <c r="D83" t="n">
+        <v>40</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.8</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -14480,26 +13706,10 @@
           <t>Head Middle</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
         <v>5</v>
       </c>
@@ -14804,25 +14014,17 @@
           <t>Isaac Litton Middle</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>34.4</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C86" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.7</v>
       </c>
       <c r="G86" t="n">
         <v>5</v>
@@ -14974,25 +14176,15 @@
           <t>Jere Baxter Middle</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>30</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.5</v>
       </c>
       <c r="G87" t="n">
         <v>5</v>
@@ -15144,25 +14336,15 @@
           <t>John Early Middle</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>13.3</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.3</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -15314,25 +14496,17 @@
           <t>John F. Kennedy Middle</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>21.2</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
+      <c r="C89" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D89" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.9</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -15484,25 +14658,17 @@
           <t>Margaret Allen Middle</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>9.9</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>31.6</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C90" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D90" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.7</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -15654,25 +14820,17 @@
           <t>McMurray Middle</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>19.9</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C91" t="n">
+        <v>5</v>
+      </c>
+      <c r="D91" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.8</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -15824,26 +14982,10 @@
           <t>John Trotwood Moore Middle</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
         <v>5</v>
       </c>
@@ -16144,25 +15286,17 @@
           <t>William Henry Oliver Middle</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>39.2</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C94" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -16314,26 +15448,10 @@
           <t>Rose Park Middle</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
         <v>2</v>
       </c>
@@ -16484,25 +15602,15 @@
           <t>Madison Middle</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>22.4</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.8</v>
       </c>
       <c r="G96" t="n">
         <v>5</v>
@@ -16654,25 +15762,17 @@
           <t>Thurgood Marshall Middle</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>25.5</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
+      <c r="C97" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2.9</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -16824,25 +15924,17 @@
           <t>Two Rivers Middle</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>21.7</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C98" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.7</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -16994,26 +16086,10 @@
           <t>West End Middle</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
         <v>5</v>
       </c>
@@ -17164,26 +16240,10 @@
           <t>Isaiah T. Creswell Middle School of the Arts</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
         <v>4</v>
       </c>
@@ -17334,25 +16394,15 @@
           <t>Wright Middle</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>15</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.6</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -17504,25 +16554,15 @@
           <t>Antioch High School</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>17.9</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.7</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -17568,41 +16608,29 @@
       <c r="T102" t="n">
         <v>15.2</v>
       </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>9.7</t>
-        </is>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>81.7</t>
-        </is>
+      <c r="U102" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="V102" t="n">
+        <v>81.7</v>
       </c>
       <c r="W102" t="n">
         <v>558</v>
       </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="Y102" t="inlineStr">
-        <is>
-          <t>79.6</t>
-        </is>
+      <c r="X102" t="n">
+        <v>444</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>79.59999999999999</v>
       </c>
       <c r="Z102" t="n">
         <v>558</v>
       </c>
-      <c r="AA102" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="AB102" t="inlineStr">
-        <is>
-          <t>76.2</t>
-        </is>
+      <c r="AA102" t="n">
+        <v>425</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>76.2</v>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
@@ -17716,26 +16744,10 @@
           <t>Nashville Big Picture High School</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
         <v>1</v>
       </c>
@@ -17780,42 +16792,22 @@
       <c r="T103" t="n">
         <v>17.6</v>
       </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>57.1</t>
-        </is>
+      <c r="U103" t="n">
+        <v>20</v>
+      </c>
+      <c r="V103" t="n">
+        <v>57.1</v>
       </c>
       <c r="W103" t="n">
         <v>35</v>
       </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="n">
         <v>35</v>
       </c>
-      <c r="AA103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AB103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
       <c r="AC103" t="inlineStr">
         <is>
           <t>hs</t>
@@ -17928,25 +16920,15 @@
           <t>Cane Ridge High School</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>21.3</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.8</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -17992,41 +16974,29 @@
       <c r="T104" t="n">
         <v>15.4</v>
       </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>81.5</t>
-        </is>
+      <c r="U104" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="V104" t="n">
+        <v>81.5</v>
       </c>
       <c r="W104" t="n">
         <v>483</v>
       </c>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>385</t>
-        </is>
-      </c>
-      <c r="Y104" t="inlineStr">
-        <is>
-          <t>79.7</t>
-        </is>
+      <c r="X104" t="n">
+        <v>385</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>79.7</v>
       </c>
       <c r="Z104" t="n">
         <v>483</v>
       </c>
-      <c r="AA104" t="inlineStr">
-        <is>
-          <t>377</t>
-        </is>
-      </c>
-      <c r="AB104" t="inlineStr">
-        <is>
-          <t>78.1</t>
-        </is>
+      <c r="AA104" t="n">
+        <v>377</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>78.09999999999999</v>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
@@ -18140,26 +17110,10 @@
           <t>East Nashville Magnet High School</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
         <v>5</v>
       </c>
@@ -18204,41 +17158,29 @@
       <c r="T105" t="n">
         <v>15.8</v>
       </c>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>10.8</t>
-        </is>
-      </c>
-      <c r="V105" t="inlineStr">
-        <is>
-          <t>81.7</t>
-        </is>
+      <c r="U105" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="V105" t="n">
+        <v>81.7</v>
       </c>
       <c r="W105" t="n">
         <v>127</v>
       </c>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="Y105" t="inlineStr">
-        <is>
-          <t>95.3</t>
-        </is>
+      <c r="X105" t="n">
+        <v>121</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>95.3</v>
       </c>
       <c r="Z105" t="n">
         <v>127</v>
       </c>
-      <c r="AA105" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="AB105" t="inlineStr">
-        <is>
-          <t>95.3</t>
-        </is>
+      <c r="AA105" t="n">
+        <v>121</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>95.3</v>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
@@ -18352,25 +17294,15 @@
           <t>Glencliff High School</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>15.3</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.5</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -18416,41 +17348,25 @@
       <c r="T106" t="n">
         <v>13.9</v>
       </c>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V106" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
       <c r="W106" t="n">
         <v>295</v>
       </c>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="Y106" t="inlineStr">
-        <is>
-          <t>71.5</t>
-        </is>
+      <c r="X106" t="n">
+        <v>211</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>71.5</v>
       </c>
       <c r="Z106" t="n">
         <v>295</v>
       </c>
-      <c r="AA106" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="AB106" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
+      <c r="AA106" t="n">
+        <v>205</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>69.5</v>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
@@ -18564,25 +17480,17 @@
           <t>Hillsboro High</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>34.4</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
+      <c r="C107" t="n">
+        <v>20</v>
+      </c>
+      <c r="D107" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3.3</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -18628,41 +17536,29 @@
       <c r="T107" t="n">
         <v>19.6</v>
       </c>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>45.9</t>
-        </is>
+      <c r="U107" t="n">
+        <v>38</v>
+      </c>
+      <c r="V107" t="n">
+        <v>45.9</v>
       </c>
       <c r="W107" t="n">
         <v>306</v>
       </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="Y107" t="inlineStr">
-        <is>
-          <t>92.8</t>
-        </is>
+      <c r="X107" t="n">
+        <v>284</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>92.8</v>
       </c>
       <c r="Z107" t="n">
         <v>306</v>
       </c>
-      <c r="AA107" t="inlineStr">
-        <is>
-          <t>282</t>
-        </is>
-      </c>
-      <c r="AB107" t="inlineStr">
-        <is>
-          <t>92.2</t>
-        </is>
+      <c r="AA107" t="n">
+        <v>282</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>92.2</v>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
@@ -18824,42 +17720,18 @@
       <c r="T108" t="n">
         <v>27.9</v>
       </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V108" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
       <c r="W108" t="n">
         <v>220</v>
       </c>
-      <c r="X108" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y108" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="n">
         <v>220</v>
       </c>
-      <c r="AA108" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AB108" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="inlineStr"/>
       <c r="AC108" t="inlineStr">
         <is>
           <t>hs</t>
@@ -18972,25 +17844,15 @@
           <t>Hunters Lane High</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>13.4</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.5</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -19036,41 +17898,29 @@
       <c r="T109" t="n">
         <v>14.5</v>
       </c>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>87.9</t>
-        </is>
+      <c r="U109" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="V109" t="n">
+        <v>87.90000000000001</v>
       </c>
       <c r="W109" t="n">
         <v>347</v>
       </c>
-      <c r="X109" t="inlineStr">
-        <is>
-          <t>298</t>
-        </is>
-      </c>
-      <c r="Y109" t="inlineStr">
-        <is>
-          <t>85.9</t>
-        </is>
+      <c r="X109" t="n">
+        <v>298</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>85.90000000000001</v>
       </c>
       <c r="Z109" t="n">
         <v>347</v>
       </c>
-      <c r="AA109" t="inlineStr">
-        <is>
-          <t>297</t>
-        </is>
-      </c>
-      <c r="AB109" t="inlineStr">
-        <is>
-          <t>85.6</t>
-        </is>
+      <c r="AA109" t="n">
+        <v>297</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>85.59999999999999</v>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
@@ -19184,25 +18034,17 @@
           <t>Lawson High</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>25.9</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C110" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -19248,41 +18090,29 @@
       <c r="T110" t="n">
         <v>17.9</v>
       </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>29.3</t>
-        </is>
-      </c>
-      <c r="V110" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
+      <c r="U110" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="V110" t="n">
+        <v>59.5</v>
       </c>
       <c r="W110" t="n">
         <v>257</v>
       </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>239</t>
-        </is>
-      </c>
-      <c r="Y110" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
+      <c r="X110" t="n">
+        <v>239</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>93</v>
       </c>
       <c r="Z110" t="n">
         <v>257</v>
       </c>
-      <c r="AA110" t="inlineStr">
-        <is>
-          <t>237</t>
-        </is>
-      </c>
-      <c r="AB110" t="inlineStr">
-        <is>
-          <t>92.2</t>
-        </is>
+      <c r="AA110" t="n">
+        <v>237</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>92.2</v>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
@@ -19396,25 +18226,17 @@
           <t>John Overton High</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>25.1</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C111" t="n">
+        <v>6</v>
+      </c>
+      <c r="D111" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.7</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -19460,41 +18282,29 @@
       <c r="T111" t="n">
         <v>16.7</v>
       </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>20.1</t>
-        </is>
-      </c>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>71.2</t>
-        </is>
+      <c r="U111" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="V111" t="n">
+        <v>71.2</v>
       </c>
       <c r="W111" t="n">
         <v>522</v>
       </c>
-      <c r="X111" t="inlineStr">
-        <is>
-          <t>426</t>
-        </is>
-      </c>
-      <c r="Y111" t="inlineStr">
-        <is>
-          <t>81.6</t>
-        </is>
+      <c r="X111" t="n">
+        <v>426</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>81.59999999999999</v>
       </c>
       <c r="Z111" t="n">
         <v>522</v>
       </c>
-      <c r="AA111" t="inlineStr">
-        <is>
-          <t>419</t>
-        </is>
-      </c>
-      <c r="AB111" t="inlineStr">
-        <is>
-          <t>80.3</t>
-        </is>
+      <c r="AA111" t="n">
+        <v>419</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>80.3</v>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
@@ -19608,26 +18418,10 @@
           <t>Early College High School</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
         <v>5</v>
       </c>
@@ -19670,42 +18464,18 @@
       <c r="T112" t="n">
         <v>23.1</v>
       </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
       <c r="W112" t="n">
         <v>37</v>
       </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="n">
         <v>37</v>
       </c>
-      <c r="AA112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AB112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr"/>
       <c r="AC112" t="inlineStr">
         <is>
           <t>hs</t>
@@ -19818,25 +18588,15 @@
           <t>Maplewood High</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>15.6</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.4</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -19882,41 +18642,25 @@
       <c r="T113" t="n">
         <v>14</v>
       </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
       <c r="W113" t="n">
         <v>199</v>
       </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="Y113" t="inlineStr">
-        <is>
-          <t>72.4</t>
-        </is>
+      <c r="X113" t="n">
+        <v>144</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>72.40000000000001</v>
       </c>
       <c r="Z113" t="n">
         <v>199</v>
       </c>
-      <c r="AA113" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="AB113" t="inlineStr">
-        <is>
-          <t>71.9</t>
-        </is>
+      <c r="AA113" t="n">
+        <v>143</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>71.90000000000001</v>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
@@ -20078,41 +18822,21 @@
       <c r="T114" t="n">
         <v>26.7</v>
       </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
       <c r="W114" t="n">
         <v>244</v>
       </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y114" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="n">
         <v>244</v>
       </c>
-      <c r="AA114" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="AB114" t="inlineStr">
-        <is>
-          <t>98.8</t>
-        </is>
+      <c r="AA114" t="n">
+        <v>241</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>98.8</v>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
@@ -20226,25 +18950,15 @@
           <t>McGavock High</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>15.9</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.7</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -20290,41 +19004,29 @@
       <c r="T115" t="n">
         <v>16.3</v>
       </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>73.3</t>
-        </is>
+      <c r="U115" t="n">
+        <v>14</v>
+      </c>
+      <c r="V115" t="n">
+        <v>73.3</v>
       </c>
       <c r="W115" t="n">
         <v>472</v>
       </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="Y115" t="inlineStr">
-        <is>
-          <t>78.4</t>
-        </is>
+      <c r="X115" t="n">
+        <v>370</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>78.40000000000001</v>
       </c>
       <c r="Z115" t="n">
         <v>472</v>
       </c>
-      <c r="AA115" t="inlineStr">
-        <is>
-          <t>357</t>
-        </is>
-      </c>
-      <c r="AB115" t="inlineStr">
-        <is>
-          <t>75.6</t>
-        </is>
+      <c r="AA115" t="n">
+        <v>357</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>75.59999999999999</v>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
@@ -20438,26 +19140,10 @@
           <t>Nashville School Of The Arts</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
@@ -20490,41 +19176,29 @@
       <c r="T116" t="n">
         <v>20.5</v>
       </c>
-      <c r="U116" t="inlineStr">
-        <is>
-          <t>48.6</t>
-        </is>
-      </c>
-      <c r="V116" t="inlineStr">
-        <is>
-          <t>35.9</t>
-        </is>
+      <c r="U116" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="V116" t="n">
+        <v>35.9</v>
       </c>
       <c r="W116" t="n">
         <v>147</v>
       </c>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="Y116" t="inlineStr">
-        <is>
-          <t>96.6</t>
-        </is>
+      <c r="X116" t="n">
+        <v>142</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>96.59999999999999</v>
       </c>
       <c r="Z116" t="n">
         <v>147</v>
       </c>
-      <c r="AA116" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="AB116" t="inlineStr">
-        <is>
-          <t>95.9</t>
-        </is>
+      <c r="AA116" t="n">
+        <v>141</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>95.90000000000001</v>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
@@ -20638,25 +19312,17 @@
           <t>Pearl-Cohn High</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>14.8</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>23.8</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
+      <c r="C117" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.9</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -20702,41 +19368,25 @@
       <c r="T117" t="n">
         <v>14.5</v>
       </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
       <c r="W117" t="n">
         <v>157</v>
       </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="Y117" t="inlineStr">
-        <is>
-          <t>86.6</t>
-        </is>
+      <c r="X117" t="n">
+        <v>136</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>86.59999999999999</v>
       </c>
       <c r="Z117" t="n">
         <v>157</v>
       </c>
-      <c r="AA117" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="AB117" t="inlineStr">
-        <is>
-          <t>86.6</t>
-        </is>
+      <c r="AA117" t="n">
+        <v>136</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>86.59999999999999</v>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
@@ -20850,25 +19500,17 @@
           <t>Stratford STEM Magnet School</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>29.4</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="C118" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2.7</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -20914,41 +19556,29 @@
       <c r="T118" t="n">
         <v>15</v>
       </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="V118" t="inlineStr">
-        <is>
-          <t>81.4</t>
-        </is>
+      <c r="U118" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="V118" t="n">
+        <v>81.40000000000001</v>
       </c>
       <c r="W118" t="n">
         <v>160</v>
       </c>
-      <c r="X118" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="Y118" t="inlineStr">
-        <is>
-          <t>78.8</t>
-        </is>
+      <c r="X118" t="n">
+        <v>126</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>78.8</v>
       </c>
       <c r="Z118" t="n">
         <v>160</v>
       </c>
-      <c r="AA118" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="AB118" t="inlineStr">
-        <is>
-          <t>78.1</t>
-        </is>
+      <c r="AA118" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>78.09999999999999</v>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
@@ -21062,25 +19692,17 @@
           <t>Whites Creek High</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C119" t="n">
+        <v>6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>40</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3</v>
       </c>
       <c r="G119" t="n">
         <v>5</v>
@@ -21126,41 +19748,25 @@
       <c r="T119" t="n">
         <v>14.6</v>
       </c>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V119" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
       <c r="W119" t="n">
         <v>151</v>
       </c>
-      <c r="X119" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="Y119" t="inlineStr">
-        <is>
-          <t>81.5</t>
-        </is>
+      <c r="X119" t="n">
+        <v>123</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>81.5</v>
       </c>
       <c r="Z119" t="n">
         <v>151</v>
       </c>
-      <c r="AA119" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="AB119" t="inlineStr">
-        <is>
-          <t>81.5</t>
-        </is>
+      <c r="AA119" t="n">
+        <v>123</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>81.5</v>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
